--- a/data/trans_orig/P37-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>17797</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10162</v>
+        <v>10989</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28221</v>
+        <v>27130</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03608416815675532</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02060314325700493</v>
+        <v>0.02228036167713041</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0572194339712226</v>
+        <v>0.05500573399169477</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -765,19 +765,19 @@
         <v>11439</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5993</v>
+        <v>6049</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19126</v>
+        <v>19957</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02451614370123133</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01284444484114789</v>
+        <v>0.01296431206712604</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0409931596217164</v>
+        <v>0.04277322476416178</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -786,19 +786,19 @@
         <v>29236</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20953</v>
+        <v>19786</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43576</v>
+        <v>41253</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03046070212800869</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02183060381915396</v>
+        <v>0.02061472212885053</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04540152109304429</v>
+        <v>0.04298144682442701</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>475417</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>464993</v>
+        <v>466084</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>483052</v>
+        <v>482225</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9639158318432447</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9427805660287775</v>
+        <v>0.9449942660083053</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9793968567429951</v>
+        <v>0.9777196383228696</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>477</v>
@@ -836,19 +836,19 @@
         <v>455134</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>447447</v>
+        <v>446616</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>460580</v>
+        <v>460524</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9754838562987687</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9590068403782835</v>
+        <v>0.9572267752358382</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9871555551588521</v>
+        <v>0.987035687932874</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>958</v>
@@ -857,19 +857,19 @@
         <v>930551</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>916211</v>
+        <v>918534</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>938834</v>
+        <v>940001</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9695392978719913</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9545984789069563</v>
+        <v>0.9570185531755734</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9781693961808461</v>
+        <v>0.9793852778711495</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>33284</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23667</v>
+        <v>22955</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47467</v>
+        <v>46812</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04525366092152271</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03217803854470556</v>
+        <v>0.03120994163687039</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06453761408288083</v>
+        <v>0.06364690502118636</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -982,19 +982,19 @@
         <v>23471</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15240</v>
+        <v>14510</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34093</v>
+        <v>35378</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03752451319846973</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02436553595442126</v>
+        <v>0.02319843314017163</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05450598390082935</v>
+        <v>0.05656027916014693</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>53</v>
@@ -1003,19 +1003,19 @@
         <v>56755</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43496</v>
+        <v>43468</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>74072</v>
+        <v>73067</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04170142246210048</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03195911432077726</v>
+        <v>0.03193864886934949</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05442506804415308</v>
+        <v>0.05368697855110714</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>702205</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>688022</v>
+        <v>688677</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>711822</v>
+        <v>712534</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9547463390784773</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9354623859171191</v>
+        <v>0.9363530949788136</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9678219614552943</v>
+        <v>0.9687900583631296</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>570</v>
@@ -1053,19 +1053,19 @@
         <v>602023</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>591401</v>
+        <v>590116</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>610254</v>
+        <v>610984</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9624754868015303</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9454940160991701</v>
+        <v>0.9434397208398527</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9756344640455786</v>
+        <v>0.9768015668598283</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1241</v>
@@ -1074,19 +1074,19 @@
         <v>1304227</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1286910</v>
+        <v>1287915</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1317486</v>
+        <v>1317514</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9582985775378995</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9455749319558467</v>
+        <v>0.946313021448893</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9680408856792226</v>
+        <v>0.9680613511306508</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>34930</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24196</v>
+        <v>24232</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48262</v>
+        <v>48484</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05469148678229411</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0378852650721317</v>
+        <v>0.03794144578367626</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07556632458100636</v>
+        <v>0.07591434265089116</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -1199,19 +1199,19 @@
         <v>44536</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32198</v>
+        <v>32653</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59013</v>
+        <v>58804</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06466121770506351</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04674799641577115</v>
+        <v>0.04740830617590502</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08568027309144444</v>
+        <v>0.08537604214494841</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -1220,19 +1220,19 @@
         <v>79466</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63350</v>
+        <v>61877</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>100071</v>
+        <v>97273</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05986447609705834</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04772405008652036</v>
+        <v>0.04661406327465627</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07538703381672525</v>
+        <v>0.0732788946726687</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>603738</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>590406</v>
+        <v>590184</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>614472</v>
+        <v>614436</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9453085132177059</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9244336754189936</v>
+        <v>0.9240856573491091</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9621147349278684</v>
+        <v>0.9620585542163238</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>616</v>
@@ -1270,19 +1270,19 @@
         <v>644227</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>629750</v>
+        <v>629959</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>656565</v>
+        <v>656110</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9353387822949365</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9143197269085556</v>
+        <v>0.9146239578550516</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9532520035842289</v>
+        <v>0.9525916938240949</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1196</v>
@@ -1291,19 +1291,19 @@
         <v>1247965</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1227360</v>
+        <v>1230158</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1264081</v>
+        <v>1265554</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9401355239029416</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9246129661832747</v>
+        <v>0.9267211053273313</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9522759499134797</v>
+        <v>0.9533859367253438</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>38583</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28014</v>
+        <v>27404</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54354</v>
+        <v>52765</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07432004580052681</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05396209143869547</v>
+        <v>0.05278644150728422</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1046985158939199</v>
+        <v>0.1016381101322543</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -1416,19 +1416,19 @@
         <v>26398</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17423</v>
+        <v>16920</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37838</v>
+        <v>37639</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05119482693271322</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03378878911565562</v>
+        <v>0.03281364106265862</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07338087088389403</v>
+        <v>0.07299424306405015</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>62</v>
@@ -1437,19 +1437,19 @@
         <v>64981</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>50432</v>
+        <v>51437</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>81652</v>
+        <v>83989</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06279660140892747</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04873662595621667</v>
+        <v>0.04970772295800585</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07890671710749643</v>
+        <v>0.08116502399586155</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>480564</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>464793</v>
+        <v>466382</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>491133</v>
+        <v>491743</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9256799541994731</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8953014841060801</v>
+        <v>0.8983618898677458</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9460379085613045</v>
+        <v>0.9472135584927157</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>476</v>
@@ -1487,19 +1487,19 @@
         <v>489244</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>477804</v>
+        <v>478003</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>498219</v>
+        <v>498722</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9488051730672867</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.926619129116106</v>
+        <v>0.9270057569359507</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9662112108843444</v>
+        <v>0.9671863589373416</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>924</v>
@@ -1508,19 +1508,19 @@
         <v>969808</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>953137</v>
+        <v>950800</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>984357</v>
+        <v>983352</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9372033985910725</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9210932828925036</v>
+        <v>0.9188349760041389</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9512633740437834</v>
+        <v>0.9502922770419944</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>71539</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>57782</v>
+        <v>57631</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>88740</v>
+        <v>87167</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1849949086068209</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1494196140747716</v>
+        <v>0.1490293617847045</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2294750608087884</v>
+        <v>0.2254067045486323</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>70</v>
@@ -1633,19 +1633,19 @@
         <v>71337</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55465</v>
+        <v>57080</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>86651</v>
+        <v>86876</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1765825555411994</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1372936980751158</v>
+        <v>0.1412931529835542</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2144902098329033</v>
+        <v>0.2150461034120694</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>142</v>
@@ -1654,19 +1654,19 @@
         <v>142876</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>123612</v>
+        <v>122634</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>162842</v>
+        <v>167274</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1806968311814949</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.156332571211343</v>
+        <v>0.1550960859124487</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2059476509722397</v>
+        <v>0.2115530893263787</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>315171</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>297970</v>
+        <v>299543</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>328928</v>
+        <v>329079</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.815005091393179</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7705249391912116</v>
+        <v>0.7745932954513679</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8505803859252284</v>
+        <v>0.8509706382152955</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>326</v>
@@ -1704,19 +1704,19 @@
         <v>332649</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>317335</v>
+        <v>317110</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>348521</v>
+        <v>346906</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8234174444588006</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7855097901670965</v>
+        <v>0.7849538965879304</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8627063019248837</v>
+        <v>0.8587068470164455</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>646</v>
@@ -1725,19 +1725,19 @@
         <v>647820</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>627854</v>
+        <v>623422</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>667084</v>
+        <v>668062</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8193031688185052</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7940523490277605</v>
+        <v>0.7884469106736213</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8436674287886571</v>
+        <v>0.8449039140875514</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>115532</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>101296</v>
+        <v>100433</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>133574</v>
+        <v>132348</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.396107888574001</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3472993804225614</v>
+        <v>0.3443404761543599</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4579635893311638</v>
+        <v>0.4537610548035576</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>164</v>
@@ -1850,19 +1850,19 @@
         <v>151936</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>135060</v>
+        <v>134573</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>169575</v>
+        <v>169419</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.443047078647445</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3938365015587936</v>
+        <v>0.3924153420839124</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4944817909476595</v>
+        <v>0.4940273152443906</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>283</v>
@@ -1871,19 +1871,19 @@
         <v>267468</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>240942</v>
+        <v>244028</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>289587</v>
+        <v>291680</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4214734379461119</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3796733768457375</v>
+        <v>0.3845361152554508</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4563271472484037</v>
+        <v>0.4596260125878857</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>176137</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>158095</v>
+        <v>159321</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>190373</v>
+        <v>191236</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.603892111425999</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5420364106688361</v>
+        <v>0.5462389451964424</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6527006195774386</v>
+        <v>0.6556595238456402</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>207</v>
@@ -1921,19 +1921,19 @@
         <v>190998</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>173359</v>
+        <v>173515</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>207874</v>
+        <v>208361</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5569529213525549</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5055182090523406</v>
+        <v>0.5059726847556094</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6061634984412064</v>
+        <v>0.6075846579160878</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>390</v>
@@ -1942,19 +1942,19 @@
         <v>367135</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>345016</v>
+        <v>342923</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>393661</v>
+        <v>390575</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5785265620538882</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5436728527515964</v>
+        <v>0.5403739874121144</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6203266231542625</v>
+        <v>0.6154638847445493</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>142821</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>128071</v>
+        <v>128141</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>154509</v>
+        <v>155103</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6804775751647782</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6102024539853256</v>
+        <v>0.6105371606989736</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7361660958969802</v>
+        <v>0.7389971919356223</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>177</v>
@@ -2067,19 +2067,19 @@
         <v>206225</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>186402</v>
+        <v>186968</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>224201</v>
+        <v>225056</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6176104090261385</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.558243824662226</v>
+        <v>0.5599395454831424</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.67144643708962</v>
+        <v>0.6740046809828245</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>327</v>
@@ -2088,19 +2088,19 @@
         <v>349046</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>326493</v>
+        <v>322914</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>372002</v>
+        <v>370048</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6418747861104216</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6004013132616202</v>
+        <v>0.5938204187245002</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6840895440562542</v>
+        <v>0.6804967488537118</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>67062</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>55374</v>
+        <v>54780</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>81812</v>
+        <v>81742</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3195224248352218</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2638339041030196</v>
+        <v>0.2610028080643777</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3897975460146729</v>
+        <v>0.3894628393010265</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>113</v>
@@ -2138,19 +2138,19 @@
         <v>127683</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>109707</v>
+        <v>108852</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>147506</v>
+        <v>146940</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3823895909738615</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.32855356291038</v>
+        <v>0.3259953190171755</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4417561753377739</v>
+        <v>0.4400604545168576</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>183</v>
@@ -2159,19 +2159,19 @@
         <v>194745</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>171789</v>
+        <v>173743</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>217298</v>
+        <v>220877</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3581252138895784</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3159104559437459</v>
+        <v>0.3195032511462882</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3995986867383798</v>
+        <v>0.4061795812754999</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>454486</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>419419</v>
+        <v>415391</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>493056</v>
+        <v>492356</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1387836733916209</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1280754041279349</v>
+        <v>0.1268455631154454</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.150561539572192</v>
+        <v>0.1503478263911714</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>510</v>
@@ -2284,19 +2284,19 @@
         <v>535342</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>495536</v>
+        <v>493950</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>582208</v>
+        <v>578391</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1585118970466272</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1467255896697603</v>
+        <v>0.146255739206859</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1723884966795035</v>
+        <v>0.1712582790597645</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>969</v>
@@ -2305,19 +2305,19 @@
         <v>989828</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>930100</v>
+        <v>932832</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1050565</v>
+        <v>1047871</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1487998107173084</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1398209032903083</v>
+        <v>0.1402316234895329</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1579303435299776</v>
+        <v>0.1575253929321466</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>2820293</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2781723</v>
+        <v>2782423</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2855360</v>
+        <v>2859388</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8612163266083791</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8494384604278079</v>
+        <v>0.8496521736088284</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8719245958720651</v>
+        <v>0.8731544368845545</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2785</v>
@@ -2355,19 +2355,19 @@
         <v>2841958</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2795092</v>
+        <v>2798909</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2881764</v>
+        <v>2883350</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8414881029533728</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8276115033204966</v>
+        <v>0.8287417209402355</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8532744103302398</v>
+        <v>0.8537442607931413</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5538</v>
@@ -2376,19 +2376,19 @@
         <v>5662251</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5601514</v>
+        <v>5604208</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5721979</v>
+        <v>5719247</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8512001892826916</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8420696564700225</v>
+        <v>0.8424746070678535</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8601790967096917</v>
+        <v>0.8597683765104674</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>27515</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18153</v>
+        <v>18996</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39699</v>
+        <v>40791</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06084866653382608</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04014473958061481</v>
+        <v>0.0420096020913467</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08779151999067913</v>
+        <v>0.09020769714599083</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -2744,19 +2744,19 @@
         <v>14122</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7394</v>
+        <v>7389</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23344</v>
+        <v>23006</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03282537296765786</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01718639561739499</v>
+        <v>0.01717489539942828</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05425873154416539</v>
+        <v>0.0534728443642463</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -2765,19 +2765,19 @@
         <v>41638</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30329</v>
+        <v>30539</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55051</v>
+        <v>55420</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04718577554852982</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0343696147865696</v>
+        <v>0.03460837669106014</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06238656901710737</v>
+        <v>0.06280437719023849</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>424679</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>412495</v>
+        <v>411403</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>434041</v>
+        <v>433198</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.939151333466174</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9122084800093209</v>
+        <v>0.909792302854009</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9598552604193852</v>
+        <v>0.9579903979086533</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>408</v>
@@ -2815,19 +2815,19 @@
         <v>416108</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>406886</v>
+        <v>407224</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>422836</v>
+        <v>422841</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9671746270323421</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9457412684558347</v>
+        <v>0.946527155635754</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9828136043826056</v>
+        <v>0.9828251046005717</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>826</v>
@@ -2836,19 +2836,19 @@
         <v>840786</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>827373</v>
+        <v>827004</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>852095</v>
+        <v>851885</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9528142244514701</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9376134309828926</v>
+        <v>0.9371956228097615</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9656303852134304</v>
+        <v>0.9653916233089399</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>41182</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29600</v>
+        <v>30372</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56221</v>
+        <v>56405</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05993772138936655</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0430798168216779</v>
+        <v>0.0442038976677718</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08182481896319435</v>
+        <v>0.08209265450028154</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -2961,19 +2961,19 @@
         <v>32439</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22257</v>
+        <v>22733</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45421</v>
+        <v>45334</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05315629590364882</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03647232510294345</v>
+        <v>0.03725177807451954</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07442999666279501</v>
+        <v>0.07428721314871553</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>70</v>
@@ -2982,19 +2982,19 @@
         <v>73621</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>59085</v>
+        <v>57911</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>93259</v>
+        <v>94594</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05674781452550241</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04554335975204779</v>
+        <v>0.04463842641938074</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07188501770031074</v>
+        <v>0.07291361498707234</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>645905</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>630866</v>
+        <v>630682</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>657487</v>
+        <v>656715</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9400622786106334</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9181751810368055</v>
+        <v>0.9179073454997186</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9569201831783221</v>
+        <v>0.9557961023322283</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>540</v>
@@ -3032,19 +3032,19 @@
         <v>577816</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>564834</v>
+        <v>564921</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>587998</v>
+        <v>587522</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9468437040963512</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9255700033372047</v>
+        <v>0.9257127868512842</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9635276748970562</v>
+        <v>0.9627482219254803</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1168</v>
@@ -3053,19 +3053,19 @@
         <v>1223721</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1204083</v>
+        <v>1202748</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1238257</v>
+        <v>1239431</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9432521854744976</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9281149822996893</v>
+        <v>0.9270863850129275</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9544566402479518</v>
+        <v>0.9553615735806191</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>50910</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>37585</v>
+        <v>37782</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66531</v>
+        <v>65913</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07466313749526378</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05512119263141332</v>
+        <v>0.0554096198976919</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09757258699747173</v>
+        <v>0.09666585291622429</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -3178,19 +3178,19 @@
         <v>51336</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39307</v>
+        <v>37848</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66585</v>
+        <v>66874</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.072217190689208</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05529532399303828</v>
+        <v>0.05324296718156906</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09366906180866474</v>
+        <v>0.0940756252985917</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>98</v>
@@ -3199,19 +3199,19 @@
         <v>102246</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82193</v>
+        <v>82933</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>123034</v>
+        <v>124570</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07341470992952615</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05901660327251546</v>
+        <v>0.05954774679262986</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08834155313414846</v>
+        <v>0.08944384994928019</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>630953</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>615332</v>
+        <v>615950</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>644278</v>
+        <v>644081</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9253368625047362</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9024274130025284</v>
+        <v>0.9033341470837755</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9448788073685869</v>
+        <v>0.9445903801023077</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>618</v>
@@ -3249,19 +3249,19 @@
         <v>659514</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>644265</v>
+        <v>643976</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>671543</v>
+        <v>673002</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.927782809310792</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9063309381913353</v>
+        <v>0.9059243747014083</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9447046760069617</v>
+        <v>0.9467570328184309</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1220</v>
@@ -3270,19 +3270,19 @@
         <v>1290466</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1269678</v>
+        <v>1268142</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1310519</v>
+        <v>1309779</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9265852900704739</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9116584468658512</v>
+        <v>0.9105561500507195</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9409833967274845</v>
+        <v>0.9404522532073699</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>51680</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38988</v>
+        <v>39336</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67565</v>
+        <v>67765</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08422580543524545</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06354058359966695</v>
+        <v>0.06410814129320794</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1101154214744988</v>
+        <v>0.1104414894859075</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -3395,19 +3395,19 @@
         <v>44244</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30557</v>
+        <v>31189</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61892</v>
+        <v>59378</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07192725611720086</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04967530717822378</v>
+        <v>0.05070343274487824</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1006170741569116</v>
+        <v>0.09652932599389233</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>82</v>
@@ -3416,19 +3416,19 @@
         <v>95924</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>77385</v>
+        <v>77057</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>118866</v>
+        <v>118701</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07806881756575118</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06298065495583367</v>
+        <v>0.062713297343158</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09673975519884684</v>
+        <v>0.09660614117796675</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>561907</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>546022</v>
+        <v>545822</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>574599</v>
+        <v>574251</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9157741945647545</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8898845785255012</v>
+        <v>0.8895585105140921</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.936459416400333</v>
+        <v>0.9358918587067919</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>501</v>
@@ -3466,19 +3466,19 @@
         <v>570884</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>553236</v>
+        <v>555750</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>584571</v>
+        <v>583939</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9280727438827991</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8993829258430883</v>
+        <v>0.9034706740061077</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9503246928217759</v>
+        <v>0.9492965672551217</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1003</v>
@@ -3487,19 +3487,19 @@
         <v>1132791</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1109849</v>
+        <v>1110014</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1151330</v>
+        <v>1151658</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9219311824342489</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9032602448011531</v>
+        <v>0.9033938588220332</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9370193450441664</v>
+        <v>0.937286702656842</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>83454</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>69733</v>
+        <v>68481</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>102188</v>
+        <v>101197</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1947961795748685</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1627696986751001</v>
+        <v>0.1598467795140726</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2385268541944601</v>
+        <v>0.2362118512174227</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>80</v>
@@ -3612,19 +3612,19 @@
         <v>85853</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>69399</v>
+        <v>70622</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>102864</v>
+        <v>103117</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1917223008799197</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1549787632315234</v>
+        <v>0.1577088931932182</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2297100643825145</v>
+        <v>0.2302745190428739</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>159</v>
@@ -3633,19 +3633,19 @@
         <v>169307</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>146577</v>
+        <v>147528</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>195013</v>
+        <v>196356</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1932252367729836</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1672848196386011</v>
+        <v>0.1683698537467422</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2225630859589408</v>
+        <v>0.2240951460125488</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>344961</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>326227</v>
+        <v>327218</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>358682</v>
+        <v>359934</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8052038204251315</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7614731458055397</v>
+        <v>0.7637881487825773</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8372303013248991</v>
+        <v>0.8401532204859271</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>326</v>
@@ -3683,19 +3683,19 @@
         <v>361947</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>344936</v>
+        <v>344683</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>378401</v>
+        <v>377178</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8082776991200803</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7702899356174853</v>
+        <v>0.769725480957126</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8450212367684765</v>
+        <v>0.8422911068067817</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>639</v>
@@ -3704,19 +3704,19 @@
         <v>706908</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>681202</v>
+        <v>679859</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>729638</v>
+        <v>728687</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8067747632270164</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7774369140410593</v>
+        <v>0.7759048539874512</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8327151803613991</v>
+        <v>0.831630146253258</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>178244</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>159282</v>
+        <v>160497</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>196194</v>
+        <v>197425</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5753772252989872</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5141681476110165</v>
+        <v>0.5180894265004206</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6333217883223828</v>
+        <v>0.637294729377187</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>165</v>
@@ -3829,19 +3829,19 @@
         <v>169403</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>148905</v>
+        <v>150325</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>187429</v>
+        <v>187437</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4785454145808009</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4206413281796679</v>
+        <v>0.4246525345663705</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5294655904101794</v>
+        <v>0.5294891357684844</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>325</v>
@@ -3850,19 +3850,19 @@
         <v>347647</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>318961</v>
+        <v>321351</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>372853</v>
+        <v>374707</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5237366802815963</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4805201211782737</v>
+        <v>0.4841210972341841</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5617104225074743</v>
+        <v>0.5645026740512119</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>131542</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>113592</v>
+        <v>112361</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>150504</v>
+        <v>149289</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4246227747010128</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3666782116776172</v>
+        <v>0.362705270622813</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4858318523889834</v>
+        <v>0.4819105734995794</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>179</v>
@@ -3900,19 +3900,19 @@
         <v>184593</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>166567</v>
+        <v>166559</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>205091</v>
+        <v>203671</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5214545854191991</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4705344095898205</v>
+        <v>0.4705108642315158</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5793586718203321</v>
+        <v>0.5753474654336295</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>301</v>
@@ -3921,19 +3921,19 @@
         <v>316135</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>290929</v>
+        <v>289075</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>344821</v>
+        <v>342431</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4762633197184037</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4382895774925258</v>
+        <v>0.4354973259487883</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5194798788217263</v>
+        <v>0.5158789027658159</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>171186</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>154759</v>
+        <v>154658</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>186663</v>
+        <v>187621</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6879805387798222</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6219635005408508</v>
+        <v>0.6215540693517629</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7501823145958514</v>
+        <v>0.7540318916685715</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>227</v>
@@ -4046,19 +4046,19 @@
         <v>251953</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>231586</v>
+        <v>231103</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>271831</v>
+        <v>270027</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6477295054789232</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5953681518288214</v>
+        <v>0.5941266423520876</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6988330789439484</v>
+        <v>0.6941946139978243</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>377</v>
@@ -4067,19 +4067,19 @@
         <v>423139</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>397432</v>
+        <v>398339</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>446494</v>
+        <v>448978</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6634324965189878</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6231261145080113</v>
+        <v>0.6245482611293135</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.700050100630386</v>
+        <v>0.7039448903513557</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>77638</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>62161</v>
+        <v>61203</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>94065</v>
+        <v>94166</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3120194612201777</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2498176854041485</v>
+        <v>0.2459681083314285</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3780364994591489</v>
+        <v>0.3784459306482371</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>123</v>
@@ -4117,19 +4117,19 @@
         <v>137026</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>117148</v>
+        <v>118952</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>157393</v>
+        <v>157876</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3522704945210768</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3011669210560516</v>
+        <v>0.3058053860021757</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4046318481711786</v>
+        <v>0.4058733576479125</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>194</v>
@@ -4138,19 +4138,19 @@
         <v>214664</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>191309</v>
+        <v>188825</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>240371</v>
+        <v>239464</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3365675034810121</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2999498993696141</v>
+        <v>0.2960551096486443</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3768738854919887</v>
+        <v>0.3754517388706864</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>604171</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>560612</v>
+        <v>554535</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>650732</v>
+        <v>656824</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1765675754991695</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1638376777489812</v>
+        <v>0.162061517111001</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1901750089915241</v>
+        <v>0.1919552390093179</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>602</v>
@@ -4263,19 +4263,19 @@
         <v>649351</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>600969</v>
+        <v>601153</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>695980</v>
+        <v>698813</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1825435882286722</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1689427255807379</v>
+        <v>0.168994430499523</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1956517450342284</v>
+        <v>0.1964480818317585</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1150</v>
@@ -4284,19 +4284,19 @@
         <v>1253522</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1189191</v>
+        <v>1190942</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1324854</v>
+        <v>1319027</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1796135880867536</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1703957927077572</v>
+        <v>0.1706466298258435</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1898345460167601</v>
+        <v>0.1889995870615094</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2817584</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2771023</v>
+        <v>2764931</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2861143</v>
+        <v>2867220</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8234324245008305</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.809824991008476</v>
+        <v>0.8080447609906821</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8361623222510188</v>
+        <v>0.837938482888999</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2695</v>
@@ -4334,19 +4334,19 @@
         <v>2907887</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2861258</v>
+        <v>2858425</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2956269</v>
+        <v>2956085</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8174564117713278</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8043482549657717</v>
+        <v>0.8035519181682416</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8310572744192621</v>
+        <v>0.8310055695004771</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5351</v>
@@ -4355,19 +4355,19 @@
         <v>5725471</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5654139</v>
+        <v>5659966</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5789802</v>
+        <v>5788051</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8203864119132463</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8101654539832395</v>
+        <v>0.8110004129384906</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8296042072922425</v>
+        <v>0.8293533701741564</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>22154</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14414</v>
+        <v>14809</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33280</v>
+        <v>33352</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05281576018786801</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03436265677625508</v>
+        <v>0.03530548611411497</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07933955207484032</v>
+        <v>0.07951043043521383</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -4723,19 +4723,19 @@
         <v>14979</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8522</v>
+        <v>8706</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24765</v>
+        <v>24303</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0378486954138253</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02153325501794595</v>
+        <v>0.02199791136525602</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06257621935384487</v>
+        <v>0.0614088063392657</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -4744,19 +4744,19 @@
         <v>37133</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26053</v>
+        <v>26879</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51631</v>
+        <v>51391</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04554986228904358</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03195822058337772</v>
+        <v>0.03297163290279781</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06333342910191338</v>
+        <v>0.06303954724417563</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>397309</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>386183</v>
+        <v>386111</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>405049</v>
+        <v>404654</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.947184239812132</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9206604479251596</v>
+        <v>0.9204895695647861</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9656373432237448</v>
+        <v>0.9646945138858847</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>389</v>
@@ -4794,19 +4794,19 @@
         <v>380776</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>370990</v>
+        <v>371452</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>387233</v>
+        <v>387049</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9621513045861747</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9374237806461552</v>
+        <v>0.9385911936607344</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9784667449820541</v>
+        <v>0.978002088634744</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>762</v>
@@ -4815,19 +4815,19 @@
         <v>778085</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>763587</v>
+        <v>763827</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>789165</v>
+        <v>788339</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9544501377109564</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9366665708980867</v>
+        <v>0.9369604527558244</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9680417794166223</v>
+        <v>0.9670283670972022</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>23892</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15749</v>
+        <v>15817</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35890</v>
+        <v>34876</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04046049830565291</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02667036902981514</v>
+        <v>0.02678638352296179</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06077904586657901</v>
+        <v>0.05906280598306008</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -4940,19 +4940,19 @@
         <v>23680</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15785</v>
+        <v>15628</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35463</v>
+        <v>32784</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04201951249599487</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02801095740409034</v>
+        <v>0.02773176977087587</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06292850220271698</v>
+        <v>0.05817527891670434</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>48</v>
@@ -4961,19 +4961,19 @@
         <v>47572</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35883</v>
+        <v>36204</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>61346</v>
+        <v>62532</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04122180002924639</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03109356379744495</v>
+        <v>0.03137194052557409</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05315741921341113</v>
+        <v>0.05418511693597328</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>566604</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>554606</v>
+        <v>555620</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>574747</v>
+        <v>574679</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9595395016943471</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9392209541334212</v>
+        <v>0.9409371940169401</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9733296309701851</v>
+        <v>0.9732136164770384</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>554</v>
@@ -5011,19 +5011,19 @@
         <v>539864</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>528081</v>
+        <v>530760</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>547759</v>
+        <v>547916</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9579804875040051</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9370714977972826</v>
+        <v>0.9418247210832956</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9719890425959097</v>
+        <v>0.972268230229124</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1098</v>
@@ -5032,19 +5032,19 @@
         <v>1106468</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1092694</v>
+        <v>1091508</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1118157</v>
+        <v>1117836</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9587781999707536</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9468425807865886</v>
+        <v>0.9458148830640263</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9689064362025549</v>
+        <v>0.9686280594744259</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>17911</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10271</v>
+        <v>10723</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28421</v>
+        <v>29483</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02676843001761623</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01535079401909096</v>
+        <v>0.01602533480669256</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04247611782052566</v>
+        <v>0.04406367294121116</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -5157,19 +5157,19 @@
         <v>42773</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31548</v>
+        <v>31381</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58154</v>
+        <v>58023</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06467184957179509</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04770018251332202</v>
+        <v>0.04744744464420986</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08792738443784472</v>
+        <v>0.08772917715010088</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -5178,19 +5178,19 @@
         <v>60684</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47594</v>
+        <v>47428</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77930</v>
+        <v>80247</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04561031090097959</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03577180622720537</v>
+        <v>0.03564734589787612</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05857249463078173</v>
+        <v>0.06031425353944753</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>651186</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>640676</v>
+        <v>639614</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>658826</v>
+        <v>658374</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9732315699823838</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9575238821794744</v>
+        <v>0.9559363270587888</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9846492059809091</v>
+        <v>0.9839746651933075</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>624</v>
@@ -5228,19 +5228,19 @@
         <v>618613</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>603232</v>
+        <v>603363</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>629838</v>
+        <v>630005</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9353281504282049</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9120726155621552</v>
+        <v>0.9122708228498991</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9522998174866779</v>
+        <v>0.9525525553557902</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1246</v>
@@ -5249,19 +5249,19 @@
         <v>1269799</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1252553</v>
+        <v>1250236</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1282889</v>
+        <v>1283055</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9543896890990204</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9414275053692184</v>
+        <v>0.9396857464605523</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.964228193772795</v>
+        <v>0.9643526541021239</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>51520</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39345</v>
+        <v>38199</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67062</v>
+        <v>68046</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07974640092784764</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06090044542310041</v>
+        <v>0.05912668241522876</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1038032199344263</v>
+        <v>0.105326690946577</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -5374,19 +5374,19 @@
         <v>45411</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33338</v>
+        <v>32814</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60564</v>
+        <v>61787</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06996266051954737</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05136214035406031</v>
+        <v>0.05055488067365028</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09330850960455134</v>
+        <v>0.09519177186907311</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>87</v>
@@ -5395,19 +5395,19 @@
         <v>96931</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>80345</v>
+        <v>77031</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>119358</v>
+        <v>118003</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07484309112121057</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06203656728108441</v>
+        <v>0.05947785402677743</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09215981273202185</v>
+        <v>0.09111306639283599</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>594528</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>578986</v>
+        <v>578002</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>606703</v>
+        <v>607849</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9202535990721523</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8961967800655749</v>
+        <v>0.8946733090534232</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9390995545768995</v>
+        <v>0.9408733175847714</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>560</v>
@@ -5445,19 +5445,19 @@
         <v>603666</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>588513</v>
+        <v>587290</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>615739</v>
+        <v>616263</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9300373394804526</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9066914903954486</v>
+        <v>0.9048082281309269</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9486378596459395</v>
+        <v>0.9494451193263493</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1097</v>
@@ -5466,19 +5466,19 @@
         <v>1198194</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1175767</v>
+        <v>1177122</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1214780</v>
+        <v>1218094</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9251569088787894</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9078401872679782</v>
+        <v>0.908886933607164</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9379634327189156</v>
+        <v>0.9405221459732226</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>90755</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>73738</v>
+        <v>72720</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>108946</v>
+        <v>110214</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1898968164550507</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1542902628008282</v>
+        <v>0.1521591209628952</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2279594765900462</v>
+        <v>0.2306124159012419</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>74</v>
@@ -5591,19 +5591,19 @@
         <v>84698</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>68838</v>
+        <v>67154</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>102782</v>
+        <v>103651</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1704697852124312</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1385481304985855</v>
+        <v>0.1351588624683061</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2068667921136898</v>
+        <v>0.2086158642669597</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>154</v>
@@ -5612,19 +5612,19 @@
         <v>175453</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>151555</v>
+        <v>152879</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>201623</v>
+        <v>204177</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1799946541186086</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1554779262729431</v>
+        <v>0.1568360568497658</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2068418399409607</v>
+        <v>0.2094624907300476</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>387163</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>368972</v>
+        <v>367704</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>404180</v>
+        <v>405198</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8101031835449494</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7720405234099538</v>
+        <v>0.7693875840987582</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8457097371991718</v>
+        <v>0.8478408790371048</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>359</v>
@@ -5662,19 +5662,19 @@
         <v>412151</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>394067</v>
+        <v>393198</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>428011</v>
+        <v>429695</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8295302147875687</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7931332078863101</v>
+        <v>0.7913841357330402</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8614518695014144</v>
+        <v>0.8648411375316938</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>703</v>
@@ -5683,19 +5683,19 @@
         <v>799314</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>773144</v>
+        <v>770590</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>823212</v>
+        <v>821888</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8200053458813914</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7931581600590393</v>
+        <v>0.7905375092699524</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8445220737270569</v>
+        <v>0.8431639431502341</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>156383</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>139052</v>
+        <v>139374</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>175034</v>
+        <v>177114</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4677507509402674</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4159135732708067</v>
+        <v>0.4168768796080364</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5235365659799042</v>
+        <v>0.5297565696808955</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>151</v>
@@ -5808,19 +5808,19 @@
         <v>162052</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>143936</v>
+        <v>142474</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>183485</v>
+        <v>182530</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4289794623260603</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3810217784785861</v>
+        <v>0.3771539114678206</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4857147013765051</v>
+        <v>0.4831883880570441</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>303</v>
@@ -5829,19 +5829,19 @@
         <v>318435</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>291632</v>
+        <v>293018</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>346219</v>
+        <v>345352</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4471827350146921</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.409542825524056</v>
+        <v>0.4114896222279715</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4861991746831681</v>
+        <v>0.4849820332880025</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>177947</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>159296</v>
+        <v>157216</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>195278</v>
+        <v>194956</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5322492490597326</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4764634340200956</v>
+        <v>0.4702434303191043</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5840864267291933</v>
+        <v>0.5831231203919636</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>203</v>
@@ -5879,19 +5879,19 @@
         <v>215710</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>194277</v>
+        <v>195232</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>233826</v>
+        <v>235288</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5710205376739397</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.514285298623495</v>
+        <v>0.516811611942956</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6189782215214141</v>
+        <v>0.6228460885321794</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>376</v>
@@ -5900,19 +5900,19 @@
         <v>393657</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>365873</v>
+        <v>366740</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>420460</v>
+        <v>419074</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5528172649853079</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.513800825316832</v>
+        <v>0.5150179667119973</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.590457174475944</v>
+        <v>0.5885103777720285</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>171733</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>158033</v>
+        <v>157508</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>184390</v>
+        <v>185980</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6682262126874801</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.614919428936011</v>
+        <v>0.6128752933883556</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7174760483681025</v>
+        <v>0.7236641134696349</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>178</v>
@@ -6025,19 +6025,19 @@
         <v>239287</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>216096</v>
+        <v>216929</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>260526</v>
+        <v>261279</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5979659365458336</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5400115915469731</v>
+        <v>0.5420929958700303</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6510406118255471</v>
+        <v>0.6529211870065752</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>378</v>
@@ -6046,19 +6046,19 @@
         <v>411020</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>385952</v>
+        <v>387414</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>436476</v>
+        <v>438425</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.62544259089558</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5872961418563178</v>
+        <v>0.5895213215768136</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6641787474963451</v>
+        <v>0.6671435585192989</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>85265</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>72608</v>
+        <v>71018</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>98965</v>
+        <v>99490</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.33177378731252</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2825239516318975</v>
+        <v>0.2763358865303654</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.385080571063989</v>
+        <v>0.3871247066116445</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>123</v>
@@ -6096,19 +6096,19 @@
         <v>160882</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>139643</v>
+        <v>138890</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>184073</v>
+        <v>183240</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4020340634541664</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.348959388174453</v>
+        <v>0.3470788129934247</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4599884084530271</v>
+        <v>0.4579070041299697</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>225</v>
@@ -6117,19 +6117,19 @@
         <v>246147</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>220691</v>
+        <v>218742</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>271215</v>
+        <v>269753</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.37455740910442</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3358212525036552</v>
+        <v>0.3328564414807012</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4127038581436821</v>
+        <v>0.4104786784231864</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>534348</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>497624</v>
+        <v>495119</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>577917</v>
+        <v>576092</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1574226856167529</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.146603495658466</v>
+        <v>0.1458655455479583</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1702585967430945</v>
+        <v>0.1697210066435183</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>526</v>
@@ -6242,19 +6242,19 @@
         <v>612880</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>564008</v>
+        <v>568450</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>659789</v>
+        <v>664315</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1729081448371995</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1591200981543988</v>
+        <v>0.1603733286697046</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1861421914368506</v>
+        <v>0.1874192678264694</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1062</v>
@@ -6263,19 +6263,19 @@
         <v>1147228</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1080622</v>
+        <v>1082044</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1208440</v>
+        <v>1212543</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1653330058630114</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1557340551663196</v>
+        <v>0.1559390549684145</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1741546503490619</v>
+        <v>0.1747458924051066</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2860002</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2816433</v>
+        <v>2818258</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2896726</v>
+        <v>2899231</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8425773143832471</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8297414032569056</v>
+        <v>0.8302789933564817</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.853396504341534</v>
+        <v>0.8541344544520417</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2812</v>
@@ -6313,19 +6313,19 @@
         <v>2931662</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2884753</v>
+        <v>2880227</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2980534</v>
+        <v>2976092</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8270918551628005</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8138578085631495</v>
+        <v>0.8125807321735306</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8408799018456012</v>
+        <v>0.8396266713302953</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5507</v>
@@ -6334,19 +6334,19 @@
         <v>5791664</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5730452</v>
+        <v>5726349</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5858270</v>
+        <v>5856848</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8346669941369886</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8258453496509381</v>
+        <v>0.8252541075948934</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8442659448336804</v>
+        <v>0.8440609450315855</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>13721</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5459</v>
+        <v>5092</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32014</v>
+        <v>28836</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03364669263363666</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01338583020943294</v>
+        <v>0.01248700565723414</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07850519127025275</v>
+        <v>0.07071186054636702</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -6702,19 +6702,19 @@
         <v>43519</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28750</v>
+        <v>28097</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64424</v>
+        <v>65521</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1200487924420856</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07930805383868705</v>
+        <v>0.07750562371474871</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1777143842537</v>
+        <v>0.1807423800452827</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -6723,19 +6723,19 @@
         <v>57240</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38286</v>
+        <v>38807</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>80889</v>
+        <v>80684</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07430824138758758</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04970221524184167</v>
+        <v>0.05037836668843231</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1050092782112986</v>
+        <v>0.1047430614917299</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>394072</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>375779</v>
+        <v>378957</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>402334</v>
+        <v>402701</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9663533073663636</v>
+        <v>0.9663533073663634</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9214948087297473</v>
+        <v>0.9292881394536328</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.986614169790567</v>
+        <v>0.9875129943427657</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>183</v>
@@ -6773,19 +6773,19 @@
         <v>318993</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>298088</v>
+        <v>296991</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>333762</v>
+        <v>334415</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8799512075579143</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8222856157462999</v>
+        <v>0.8192576199547189</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9206919461613128</v>
+        <v>0.9224943762852518</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>349</v>
@@ -6794,19 +6794,19 @@
         <v>713065</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>689416</v>
+        <v>689621</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>732019</v>
+        <v>731498</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9256917586124125</v>
+        <v>0.9256917586124124</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8949907217887015</v>
+        <v>0.8952569385082705</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9502977847581583</v>
+        <v>0.9496216333115678</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>53102</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36604</v>
+        <v>36634</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73112</v>
+        <v>72648</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1113497716085359</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07675579905317964</v>
+        <v>0.07681924858202734</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1533098016105101</v>
+        <v>0.1523376612740305</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -6919,19 +6919,19 @@
         <v>81360</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>64711</v>
+        <v>63976</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>101002</v>
+        <v>98908</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1623690616807954</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1291421158650903</v>
+        <v>0.127675208230796</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2015672749660047</v>
+        <v>0.1973885510015688</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>106</v>
@@ -6940,19 +6940,19 @@
         <v>134462</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>111290</v>
+        <v>111432</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>162096</v>
+        <v>160253</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1374904669413194</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1137963365057426</v>
+        <v>0.1139413994438437</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1657468940752</v>
+        <v>0.1638627397735624</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>423788</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>403778</v>
+        <v>404242</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>440286</v>
+        <v>440256</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8886502283914641</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8466901983894897</v>
+        <v>0.8476623387259696</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9232442009468205</v>
+        <v>0.9231807514179727</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>388</v>
@@ -6990,19 +6990,19 @@
         <v>419723</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>400081</v>
+        <v>402175</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>436372</v>
+        <v>437107</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8376309383192044</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7984327250339953</v>
+        <v>0.8026114489984314</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8708578841349096</v>
+        <v>0.8723247917692042</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>656</v>
@@ -7011,19 +7011,19 @@
         <v>843511</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>815877</v>
+        <v>817720</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>866683</v>
+        <v>866541</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8625095330586805</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8342531059248</v>
+        <v>0.8361372602264374</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8862036634942574</v>
+        <v>0.8860586005561563</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>92585</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>72920</v>
+        <v>73970</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>111585</v>
+        <v>114807</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1491295741712799</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1174538393790163</v>
+        <v>0.1191452146480573</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1797329482333772</v>
+        <v>0.1849233381240331</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>132</v>
@@ -7136,19 +7136,19 @@
         <v>98500</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>82788</v>
+        <v>83353</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>115876</v>
+        <v>115247</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1583240291299171</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1330691938654655</v>
+        <v>0.1339783652923123</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1862546172344552</v>
+        <v>0.1852437164123734</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>211</v>
@@ -7157,19 +7157,19 @@
         <v>191085</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>167800</v>
+        <v>169104</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>219454</v>
+        <v>217857</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1537316187667762</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1349982117260986</v>
+        <v>0.1360479843137807</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1765551619047511</v>
+        <v>0.1752706910983071</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>528252</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>509252</v>
+        <v>506030</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>547917</v>
+        <v>546867</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8508704258287201</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8202670517666226</v>
+        <v>0.8150766618759669</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8825461606209836</v>
+        <v>0.8808547853519426</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>714</v>
@@ -7207,19 +7207,19 @@
         <v>523639</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>506263</v>
+        <v>506892</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>539351</v>
+        <v>538786</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8416759708700827</v>
+        <v>0.8416759708700831</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8137453827655443</v>
+        <v>0.8147562835876268</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8669308061345344</v>
+        <v>0.8660216347076877</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1181</v>
@@ -7228,19 +7228,19 @@
         <v>1051891</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1023522</v>
+        <v>1025119</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1075176</v>
+        <v>1073872</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8462683812332237</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8234448380952489</v>
+        <v>0.8247293089016928</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8650017882739013</v>
+        <v>0.8639520156862194</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>143148</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>121674</v>
+        <v>122793</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>165607</v>
+        <v>167384</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2043176431769198</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1736675001526517</v>
+        <v>0.1752639762370478</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2363734502530671</v>
+        <v>0.2389090660775966</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>256</v>
@@ -7353,19 +7353,19 @@
         <v>166690</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>149037</v>
+        <v>149541</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>184360</v>
+        <v>184684</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2263282552614446</v>
+        <v>0.2263282552614447</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2023594385379687</v>
+        <v>0.2030440507462455</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2503201861899365</v>
+        <v>0.2507600983465786</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>391</v>
@@ -7374,19 +7374,19 @@
         <v>309838</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>284224</v>
+        <v>282706</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>341711</v>
+        <v>339554</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2155976992699955</v>
+        <v>0.2155976992699956</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1977740986314185</v>
+        <v>0.1967178441220974</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2377762994829406</v>
+        <v>0.2362753908027227</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>557469</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>535010</v>
+        <v>533233</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>578943</v>
+        <v>577824</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7956823568230804</v>
+        <v>0.7956823568230801</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7636265497469327</v>
+        <v>0.7610909339224036</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8263324998473481</v>
+        <v>0.8247360237629521</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>884</v>
@@ -7424,19 +7424,19 @@
         <v>569805</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>552135</v>
+        <v>551811</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>587458</v>
+        <v>586954</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7736717447385552</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7496798138100639</v>
+        <v>0.7492399016534214</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7976405614620313</v>
+        <v>0.7969559492537545</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1414</v>
@@ -7445,19 +7445,19 @@
         <v>1127274</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1095401</v>
+        <v>1097558</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1152888</v>
+        <v>1154406</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7844023007300043</v>
+        <v>0.7844023007300044</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7622237005170593</v>
+        <v>0.7637246091972774</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8022259013685816</v>
+        <v>0.8032821558779027</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>222872</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>200451</v>
+        <v>202113</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>247451</v>
+        <v>249391</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3657557766832604</v>
+        <v>0.3657557766832605</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3289605089069758</v>
+        <v>0.3316884122545986</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4060931676303226</v>
+        <v>0.4092766036419018</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>372</v>
@@ -7570,19 +7570,19 @@
         <v>226887</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>209129</v>
+        <v>208856</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>246181</v>
+        <v>246944</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3730876354444772</v>
+        <v>0.3730876354444774</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.343886854644309</v>
+        <v>0.3434383418440763</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4048146793400046</v>
+        <v>0.4060691825557091</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>621</v>
@@ -7591,19 +7591,19 @@
         <v>449759</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>421748</v>
+        <v>420151</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>479688</v>
+        <v>477693</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.369418051301652</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3464107778905843</v>
+        <v>0.345099533748255</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3940012602219645</v>
+        <v>0.3923620712880993</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>386474</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>361895</v>
+        <v>359955</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>408895</v>
+        <v>407233</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6342442233167394</v>
+        <v>0.6342442233167395</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5939068323696775</v>
+        <v>0.5907233963580978</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6710394910930242</v>
+        <v>0.6683115877454014</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>629</v>
@@ -7641,19 +7641,19 @@
         <v>381246</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>361952</v>
+        <v>361189</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>399004</v>
+        <v>399277</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6269123645555226</v>
+        <v>0.6269123645555229</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5951853206599952</v>
+        <v>0.5939308174442911</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6561131453556902</v>
+        <v>0.6565616581559237</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1043</v>
@@ -7662,19 +7662,19 @@
         <v>767720</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>737791</v>
+        <v>739786</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>795731</v>
+        <v>797328</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.630581948698348</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6059987397780356</v>
+        <v>0.607637928711901</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6535892221094156</v>
+        <v>0.6549004662517457</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>293850</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>278626</v>
+        <v>277413</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>306935</v>
+        <v>308194</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7218477830858555</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6844494489808215</v>
+        <v>0.6814706230126881</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7539924903599292</v>
+        <v>0.7570844027449781</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>612</v>
@@ -7787,19 +7787,19 @@
         <v>324215</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>311483</v>
+        <v>310350</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>337512</v>
+        <v>335871</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.7382527032639681</v>
+        <v>0.738252703263968</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7092603877451527</v>
+        <v>0.7066796425937197</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7685296830054634</v>
+        <v>0.7647936408850952</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1029</v>
@@ -7808,19 +7808,19 @@
         <v>618065</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>596632</v>
+        <v>595667</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>636251</v>
+        <v>637520</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.7303612495721463</v>
+        <v>0.7303612495721464</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7050341943984934</v>
+        <v>0.7038937310550345</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.751850709013726</v>
+        <v>0.7533506622871289</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>113230</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>100145</v>
+        <v>98886</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>128454</v>
+        <v>129667</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2781522169141444</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2460075096400705</v>
+        <v>0.2429155972550218</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3155505510191784</v>
+        <v>0.3185293769873119</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>215</v>
@@ -7858,19 +7858,19 @@
         <v>114951</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>101654</v>
+        <v>103295</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>127683</v>
+        <v>128816</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.261747296736032</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2314703169945365</v>
+        <v>0.2352063591149049</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2907396122548473</v>
+        <v>0.2933203574062804</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>368</v>
@@ -7879,19 +7879,19 @@
         <v>228181</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>209995</v>
+        <v>208726</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>249614</v>
+        <v>250579</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2696387504278535</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2481492909862741</v>
+        <v>0.246649337712871</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2949658056015063</v>
+        <v>0.2961062689449655</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>273157</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>261627</v>
+        <v>262470</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>281489</v>
+        <v>281937</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8805902088086431</v>
+        <v>0.880590208808643</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.843420531125592</v>
+        <v>0.846138593058168</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9074484510774697</v>
+        <v>0.9088940594718675</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>770</v>
@@ -8004,19 +8004,19 @@
         <v>402882</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>390933</v>
+        <v>391473</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>413109</v>
+        <v>412809</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8671416188195012</v>
+        <v>0.8671416188195011</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8414233936601561</v>
+        <v>0.8425857642044905</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8891542319566185</v>
+        <v>0.8885078087739356</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1178</v>
@@ -8025,19 +8025,19 @@
         <v>676039</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>658197</v>
+        <v>659252</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>689653</v>
+        <v>690557</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8725258355246623</v>
+        <v>0.8725258355246622</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8494974665678993</v>
+        <v>0.8508600883070578</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.890096713581326</v>
+        <v>0.8912629623599827</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>37041</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>28709</v>
+        <v>28261</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>48571</v>
+        <v>47728</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1194097911913568</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09255154892253047</v>
+        <v>0.09110594052813219</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1565794688744085</v>
+        <v>0.1538614069418316</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>111</v>
@@ -8075,19 +8075,19 @@
         <v>61727</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>51500</v>
+        <v>51800</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>73676</v>
+        <v>73136</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1328583811804987</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1108457680433815</v>
+        <v>0.1114921912260643</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.158576606339844</v>
+        <v>0.1574142357955095</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>161</v>
@@ -8096,19 +8096,19 @@
         <v>98768</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>85154</v>
+        <v>84250</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>116610</v>
+        <v>115555</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1274741644753377</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1099032864186742</v>
+        <v>0.1087370376400174</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1505025334321009</v>
+        <v>0.1491399116929424</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>1092435</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1037290</v>
+        <v>1034007</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1153456</v>
+        <v>1144253</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3092297937081</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2936202356636157</v>
+        <v>0.2926907407507263</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.326502744985211</v>
+        <v>0.3238975471330842</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2238</v>
@@ -8221,19 +8221,19 @@
         <v>1344053</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1290358</v>
+        <v>1294991</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1391165</v>
+        <v>1399371</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3599366550332037</v>
+        <v>0.3599366550332035</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3455571848324721</v>
+        <v>0.3467979395838051</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3725533656038037</v>
+        <v>0.3747508455926532</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3566</v>
@@ -8242,19 +8242,19 @@
         <v>2436488</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2365339</v>
+        <v>2363540</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2520066</v>
+        <v>2508577</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3352858010418433</v>
+        <v>0.3352858010418432</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3254949496318338</v>
+        <v>0.325247387605506</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.346787023965676</v>
+        <v>0.3452059779363593</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2440327</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2379306</v>
+        <v>2388509</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2495472</v>
+        <v>2498755</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6907702062919001</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6734972550147882</v>
+        <v>0.6761024528669159</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7063797643363841</v>
+        <v>0.707309259249274</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3124</v>
@@ -8292,19 +8292,19 @@
         <v>2390084</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2342972</v>
+        <v>2334766</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2443779</v>
+        <v>2439146</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6400633449667964</v>
+        <v>0.6400633449667963</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6274466343961962</v>
+        <v>0.6252491544073472</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6544428151675279</v>
+        <v>0.6532020604161956</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5172</v>
@@ -8313,19 +8313,19 @@
         <v>4830411</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4746833</v>
+        <v>4758322</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4901560</v>
+        <v>4903359</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6647141989581569</v>
+        <v>0.6647141989581568</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6532129760343239</v>
+        <v>0.6547940220636406</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6745050503681661</v>
+        <v>0.6747526123944942</v>
       </c>
     </row>
     <row r="27">
